--- a/CustomerPortalWebApi/Uploads/ExcelFiles/SampleBalanceConfirmationUpload (1).xlsx
+++ b/CustomerPortalWebApi/Uploads/ExcelFiles/SampleBalanceConfirmationUpload (1).xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="588" windowWidth="22716" windowHeight="8676"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="BalanceConfirmation" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Dealer Code</t>
   </si>
   <si>
-    <t>018D000194</t>
+    <t>prism bandhan</t>
+  </si>
+  <si>
+    <t>abc0001</t>
   </si>
 </sst>
 </file>
@@ -350,15 +353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -371,6 +374,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
